--- a/biology/Microbiologie/Cometodendron/Cometodendron.xlsx
+++ b/biology/Microbiologie/Cometodendron/Cometodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cometodendridae
 Cometodendron, unique représentant de la famille des Cometodendridae, est un genre de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Cometodendron est dérivé du grec κόμη / komi, « chevelure », et de δένδρων / dendron, « arbre », littéralement « arbre chevelu », en référence à la forme de l'organisme.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cometodendron a un corps cellulaire droit allongé portant un certain nombre de bras ramifiés qui partent de la face supérieure. Il n'y a pas de tige et pas de lorica (loge). Le corps est attaché directement aux gammares d'eau douce par une extension en forme de pied. Les bras sont équipés de courts tentacules pointus rétractiles. Le macronoyau est sphérique et la reproduction se ferait par simple bourgeonnement endogène[1].
-Il est facilement confondu avec le genre Dendrocometes Stein, 1852 (genre type de la famille des Dendrocometidae) qui a un corps arrondi sans attache de pied[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cometodendron a un corps cellulaire droit allongé portant un certain nombre de bras ramifiés qui partent de la face supérieure. Il n'y a pas de tige et pas de lorica (loge). Le corps est attaché directement aux gammares d'eau douce par une extension en forme de pied. Les bras sont équipés de courts tentacules pointus rétractiles. Le macronoyau est sphérique et la reproduction se ferait par simple bourgeonnement endogène.
+Il est facilement confondu avec le genre Dendrocometes Stein, 1852 (genre type de la famille des Dendrocometidae) qui a un corps arrondi sans attache de pied.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cometodendron a été découvert sur la corps de crustacés gammaridés dans le lac Baïkal (Sibérie)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cometodendron a été découvert sur la corps de crustacés gammaridés dans le lac Baïkal (Sibérie).
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de la famille est Cometodendridae Jankowski, 1967[2].
-Le genre Cometodendron a été créé en 1928 par Boris Swarczewsky (d)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de la famille est Cometodendridae Jankowski, 1967.
+Le genre Cometodendron a été créé en 1928 par Boris Swarczewsky (d).
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (25 octobre 2023)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (25 octobre 2023) :
 Cometodendron brevimanum Swarczewsky, 1928
 Cometodendron clavatum Swarczewsky, 1928
 Cometodendron digitatum Swarczewsky, 1928
